--- a/Data/OLD/Staphylinidae_2.18.2022.xlsx
+++ b/Data/OLD/Staphylinidae_2.18.2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmanni12\Documents\GitHub\trapping_calibration\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmanni12\Documents\GitHub\trapping_calibration\Data\OLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F3E1D9-277B-4B5A-AE5C-158A4E0FEFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84345D3C-6B5F-49D5-954E-1ADEC71D8A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0186DAAE-1448-4477-9DEE-7E0BC48827CB}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="14400" windowHeight="9050" xr2:uid="{0186DAAE-1448-4477-9DEE-7E0BC48827CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
